--- a/gdrive/adatbazis_2HF.xlsx
+++ b/gdrive/adatbazis_2HF.xlsx
@@ -8,9 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId6" sheetId="7"/>
-    <sheet name="Sheet2" r:id="rId7" sheetId="8"/>
-    <sheet name="Sheet3" r:id="rId8" sheetId="9"/>
+    <sheet name="Sheet1" r:id="rId6" sheetId="4"/>
+    <sheet name="Sheet2" r:id="rId7" sheetId="5"/>
+    <sheet name="Sheet3" r:id="rId8" sheetId="6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="35">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>41259f2c2b3749c2e186a8615329a10c</t>
-  </si>
-  <si>
-    <t>05819bfb62590144089c73294d3205e5</t>
   </si>
 </sst>
 </file>
@@ -224,7 +221,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -266,7 +263,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="n">
         <v>2.0</v>
@@ -298,7 +295,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
@@ -330,7 +327,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="n">
         <v>1.0</v>
@@ -362,7 +359,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
@@ -394,7 +391,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="n">
         <v>2.0</v>
@@ -426,7 +423,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" t="n">
         <v>2.0</v>
@@ -458,7 +455,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" t="n">
         <v>1.0</v>
@@ -490,7 +487,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" t="n">
         <v>1.0</v>
@@ -522,7 +519,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" t="n">
         <v>1.0</v>
@@ -554,7 +551,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" t="n">
         <v>1.0</v>
@@ -586,7 +583,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="n">
         <v>1.0</v>
@@ -618,7 +615,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" t="n">
         <v>1.0</v>
@@ -650,7 +647,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" t="n">
         <v>2.0</v>
@@ -682,7 +679,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" t="n">
         <v>1.0</v>
@@ -714,7 +711,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" t="n">
         <v>1.0</v>
@@ -746,7 +743,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" t="n">
         <v>1.0</v>
@@ -778,7 +775,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -810,7 +807,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -842,7 +839,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" t="n">
         <v>1.0</v>
@@ -874,7 +871,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" t="n">
         <v>1.0</v>
@@ -906,7 +903,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" t="n">
         <v>1.0</v>
@@ -938,7 +935,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" t="n">
         <v>1.0</v>
@@ -970,7 +967,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" t="n">
         <v>1.0</v>
@@ -1002,7 +999,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" t="n">
         <v>1.0</v>
@@ -1034,7 +1031,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" t="n">
         <v>1.0</v>
@@ -1066,7 +1063,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" t="n">
         <v>1.0</v>
@@ -1098,7 +1095,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="n">
         <v>1.0</v>
@@ -1130,7 +1127,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" t="n">
         <v>1.0</v>
@@ -1162,7 +1159,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" t="n">
         <v>1.0</v>
@@ -1194,7 +1191,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n">
         <v>1.0</v>
@@ -1229,7 +1226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1271,7 +1268,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="n">
         <v>2.0</v>
@@ -1303,7 +1300,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
@@ -1335,7 +1332,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="n">
         <v>1.0</v>
@@ -1367,7 +1364,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
@@ -1399,7 +1396,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="n">
         <v>2.0</v>
@@ -1431,7 +1428,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" t="n">
         <v>2.0</v>
@@ -1463,7 +1460,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" t="n">
         <v>1.0</v>
@@ -1495,7 +1492,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" t="n">
         <v>1.0</v>
@@ -1527,7 +1524,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" t="n">
         <v>1.0</v>
@@ -1559,7 +1556,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" t="n">
         <v>1.0</v>
@@ -1591,7 +1588,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="n">
         <v>1.0</v>
@@ -1623,7 +1620,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" t="n">
         <v>1.0</v>
@@ -1655,7 +1652,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" t="n">
         <v>2.0</v>
@@ -1687,7 +1684,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" t="n">
         <v>1.0</v>
@@ -1719,7 +1716,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" t="n">
         <v>1.0</v>
@@ -1751,7 +1748,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" t="n">
         <v>1.0</v>
@@ -1783,7 +1780,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -1815,7 +1812,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -1847,7 +1844,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" t="n">
         <v>1.0</v>
@@ -1879,7 +1876,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" t="n">
         <v>1.0</v>
@@ -1911,7 +1908,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" t="n">
         <v>1.0</v>
@@ -1943,7 +1940,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" t="n">
         <v>1.0</v>
@@ -1975,7 +1972,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" t="n">
         <v>1.0</v>
@@ -2007,7 +2004,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" t="n">
         <v>1.0</v>
@@ -2039,7 +2036,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" t="n">
         <v>1.0</v>
@@ -2071,7 +2068,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" t="n">
         <v>1.0</v>
@@ -2103,7 +2100,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="n">
         <v>1.0</v>
@@ -2135,7 +2132,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" t="n">
         <v>1.0</v>
@@ -2167,7 +2164,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" t="n">
         <v>1.0</v>
@@ -2199,7 +2196,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n">
         <v>1.0</v>
@@ -2234,7 +2231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2276,7 +2273,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="n">
         <v>2.0</v>
@@ -2308,7 +2305,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
@@ -2340,7 +2337,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="n">
         <v>1.0</v>
@@ -2372,7 +2369,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
@@ -2404,7 +2401,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="n">
         <v>2.0</v>
@@ -2436,7 +2433,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" t="n">
         <v>2.0</v>
@@ -2468,7 +2465,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" t="n">
         <v>1.0</v>
@@ -2500,7 +2497,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" t="n">
         <v>1.0</v>
@@ -2532,7 +2529,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" t="n">
         <v>1.0</v>
@@ -2564,7 +2561,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" t="n">
         <v>1.0</v>
@@ -2596,7 +2593,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="n">
         <v>1.0</v>
@@ -2628,7 +2625,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" t="n">
         <v>1.0</v>
@@ -2660,7 +2657,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" t="n">
         <v>2.0</v>
@@ -2692,7 +2689,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" t="n">
         <v>1.0</v>
@@ -2724,7 +2721,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" t="n">
         <v>1.0</v>
@@ -2756,7 +2753,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" t="n">
         <v>1.0</v>
@@ -2788,7 +2785,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -2820,7 +2817,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -2852,7 +2849,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" t="n">
         <v>1.0</v>
@@ -2884,7 +2881,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" t="n">
         <v>1.0</v>
@@ -2916,7 +2913,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" t="n">
         <v>1.0</v>
@@ -2948,7 +2945,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" t="n">
         <v>1.0</v>
@@ -2980,7 +2977,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" t="n">
         <v>1.0</v>
@@ -3012,7 +3009,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" t="n">
         <v>1.0</v>
@@ -3044,7 +3041,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" t="n">
         <v>1.0</v>
@@ -3076,7 +3073,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" t="n">
         <v>1.0</v>
@@ -3108,7 +3105,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="n">
         <v>1.0</v>
@@ -3140,7 +3137,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" t="n">
         <v>1.0</v>
@@ -3172,7 +3169,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" t="n">
         <v>1.0</v>
@@ -3204,7 +3201,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n">
         <v>1.0</v>

--- a/gdrive/adatbazis_2HF.xlsx
+++ b/gdrive/adatbazis_2HF.xlsx
@@ -8,9 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId6" sheetId="4"/>
-    <sheet name="Sheet2" r:id="rId7" sheetId="5"/>
-    <sheet name="Sheet3" r:id="rId8" sheetId="6"/>
+    <sheet name="Sheet1" r:id="rId6" sheetId="7"/>
+    <sheet name="Sheet2" r:id="rId7" sheetId="8"/>
+    <sheet name="Sheet3" r:id="rId8" sheetId="9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="36">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>41259f2c2b3749c2e186a8615329a10c</t>
+  </si>
+  <si>
+    <t>05819bfb62590144089c73294d3205e5</t>
   </si>
 </sst>
 </file>
@@ -221,7 +224,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1226,7 +1229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1268,7 +1271,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="n">
         <v>2.0</v>
@@ -1300,7 +1303,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
@@ -1332,7 +1335,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="n">
         <v>1.0</v>
@@ -1364,7 +1367,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
@@ -1396,7 +1399,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="n">
         <v>2.0</v>
@@ -1428,7 +1431,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="n">
         <v>2.0</v>
@@ -1460,7 +1463,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="n">
         <v>1.0</v>
@@ -1492,7 +1495,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="n">
         <v>1.0</v>
@@ -1524,7 +1527,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="n">
         <v>1.0</v>
@@ -1556,7 +1559,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="n">
         <v>1.0</v>
@@ -1588,7 +1591,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" t="n">
         <v>1.0</v>
@@ -1620,7 +1623,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" t="n">
         <v>1.0</v>
@@ -1652,7 +1655,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="n">
         <v>2.0</v>
@@ -1684,7 +1687,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" t="n">
         <v>1.0</v>
@@ -1716,7 +1719,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" t="n">
         <v>1.0</v>
@@ -1748,7 +1751,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" t="n">
         <v>1.0</v>
@@ -1780,7 +1783,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -1812,7 +1815,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -1844,7 +1847,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="n">
         <v>1.0</v>
@@ -1876,7 +1879,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="n">
         <v>1.0</v>
@@ -1908,7 +1911,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="n">
         <v>1.0</v>
@@ -1940,7 +1943,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="n">
         <v>1.0</v>
@@ -1972,7 +1975,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" t="n">
         <v>1.0</v>
@@ -2004,7 +2007,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" t="n">
         <v>1.0</v>
@@ -2036,7 +2039,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" t="n">
         <v>1.0</v>
@@ -2068,7 +2071,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" t="n">
         <v>1.0</v>
@@ -2100,7 +2103,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" t="n">
         <v>1.0</v>
@@ -2132,7 +2135,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" t="n">
         <v>1.0</v>
@@ -2164,7 +2167,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" t="n">
         <v>1.0</v>
@@ -2196,7 +2199,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" t="n">
         <v>1.0</v>
@@ -2231,7 +2234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2273,7 +2276,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="n">
         <v>2.0</v>
@@ -2305,7 +2308,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
@@ -2337,7 +2340,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="n">
         <v>1.0</v>
@@ -2369,7 +2372,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
@@ -2401,7 +2404,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="n">
         <v>2.0</v>
@@ -2433,7 +2436,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="n">
         <v>2.0</v>
@@ -2465,7 +2468,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="n">
         <v>1.0</v>
@@ -2497,7 +2500,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="n">
         <v>1.0</v>
@@ -2529,7 +2532,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="n">
         <v>1.0</v>
@@ -2561,7 +2564,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="n">
         <v>1.0</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" t="n">
         <v>1.0</v>
@@ -2625,7 +2628,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" t="n">
         <v>1.0</v>
@@ -2657,7 +2660,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="n">
         <v>2.0</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" t="n">
         <v>1.0</v>
@@ -2721,7 +2724,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" t="n">
         <v>1.0</v>
@@ -2753,7 +2756,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" t="n">
         <v>1.0</v>
@@ -2785,7 +2788,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -2817,7 +2820,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -2849,7 +2852,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="n">
         <v>1.0</v>
@@ -2881,7 +2884,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="n">
         <v>1.0</v>
@@ -2913,7 +2916,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="n">
         <v>1.0</v>
@@ -2945,7 +2948,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="n">
         <v>1.0</v>
@@ -2977,7 +2980,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" t="n">
         <v>1.0</v>
@@ -3009,7 +3012,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" t="n">
         <v>1.0</v>
@@ -3041,7 +3044,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" t="n">
         <v>1.0</v>
@@ -3073,7 +3076,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" t="n">
         <v>1.0</v>
@@ -3105,7 +3108,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" t="n">
         <v>1.0</v>
@@ -3137,7 +3140,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" t="n">
         <v>1.0</v>
@@ -3169,7 +3172,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" t="n">
         <v>1.0</v>
@@ -3201,7 +3204,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" t="n">
         <v>1.0</v>

--- a/gdrive/adatbazis_2HF.xlsx
+++ b/gdrive/adatbazis_2HF.xlsx
@@ -8,9 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId6" sheetId="7"/>
-    <sheet name="Sheet2" r:id="rId7" sheetId="8"/>
-    <sheet name="Sheet3" r:id="rId8" sheetId="9"/>
+    <sheet name="Sheet1" r:id="rId6" sheetId="4"/>
+    <sheet name="Sheet2" r:id="rId7" sheetId="5"/>
+    <sheet name="Sheet3" r:id="rId8" sheetId="6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="35">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>41259f2c2b3749c2e186a8615329a10c</t>
-  </si>
-  <si>
-    <t>05819bfb62590144089c73294d3205e5</t>
   </si>
 </sst>
 </file>
@@ -224,7 +221,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1229,7 +1226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1271,7 +1268,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="n">
         <v>2.0</v>
@@ -1303,7 +1300,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
@@ -1335,7 +1332,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="n">
         <v>1.0</v>
@@ -1367,7 +1364,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
@@ -1399,7 +1396,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="n">
         <v>2.0</v>
@@ -1431,7 +1428,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" t="n">
         <v>2.0</v>
@@ -1463,7 +1460,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" t="n">
         <v>1.0</v>
@@ -1495,7 +1492,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" t="n">
         <v>1.0</v>
@@ -1527,7 +1524,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" t="n">
         <v>1.0</v>
@@ -1559,7 +1556,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" t="n">
         <v>1.0</v>
@@ -1591,7 +1588,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="n">
         <v>1.0</v>
@@ -1623,7 +1620,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" t="n">
         <v>1.0</v>
@@ -1655,7 +1652,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" t="n">
         <v>2.0</v>
@@ -1687,7 +1684,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" t="n">
         <v>1.0</v>
@@ -1719,7 +1716,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" t="n">
         <v>1.0</v>
@@ -1751,7 +1748,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" t="n">
         <v>1.0</v>
@@ -1783,7 +1780,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -1815,7 +1812,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -1847,7 +1844,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" t="n">
         <v>1.0</v>
@@ -1879,7 +1876,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" t="n">
         <v>1.0</v>
@@ -1911,7 +1908,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" t="n">
         <v>1.0</v>
@@ -1943,7 +1940,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" t="n">
         <v>1.0</v>
@@ -1975,7 +1972,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" t="n">
         <v>1.0</v>
@@ -2007,7 +2004,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" t="n">
         <v>1.0</v>
@@ -2039,7 +2036,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" t="n">
         <v>1.0</v>
@@ -2071,7 +2068,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" t="n">
         <v>1.0</v>
@@ -2103,7 +2100,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="n">
         <v>1.0</v>
@@ -2135,7 +2132,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" t="n">
         <v>1.0</v>
@@ -2167,7 +2164,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" t="n">
         <v>1.0</v>
@@ -2199,7 +2196,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n">
         <v>1.0</v>
@@ -2234,7 +2231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2276,7 +2273,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="n">
         <v>2.0</v>
@@ -2308,7 +2305,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
@@ -2340,7 +2337,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="n">
         <v>1.0</v>
@@ -2372,7 +2369,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
@@ -2404,7 +2401,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="n">
         <v>2.0</v>
@@ -2436,7 +2433,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" t="n">
         <v>2.0</v>
@@ -2468,7 +2465,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" t="n">
         <v>1.0</v>
@@ -2500,7 +2497,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" t="n">
         <v>1.0</v>
@@ -2532,7 +2529,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" t="n">
         <v>1.0</v>
@@ -2564,7 +2561,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" t="n">
         <v>1.0</v>
@@ -2596,7 +2593,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="n">
         <v>1.0</v>
@@ -2628,7 +2625,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" t="n">
         <v>1.0</v>
@@ -2660,7 +2657,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" t="n">
         <v>2.0</v>
@@ -2692,7 +2689,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" t="n">
         <v>1.0</v>
@@ -2724,7 +2721,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" t="n">
         <v>1.0</v>
@@ -2756,7 +2753,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" t="n">
         <v>1.0</v>
@@ -2788,7 +2785,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -2820,7 +2817,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -2852,7 +2849,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" t="n">
         <v>1.0</v>
@@ -2884,7 +2881,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" t="n">
         <v>1.0</v>
@@ -2916,7 +2913,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" t="n">
         <v>1.0</v>
@@ -2948,7 +2945,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" t="n">
         <v>1.0</v>
@@ -2980,7 +2977,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" t="n">
         <v>1.0</v>
@@ -3012,7 +3009,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" t="n">
         <v>1.0</v>
@@ -3044,7 +3041,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" t="n">
         <v>1.0</v>
@@ -3076,7 +3073,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" t="n">
         <v>1.0</v>
@@ -3108,7 +3105,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="n">
         <v>1.0</v>
@@ -3140,7 +3137,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" t="n">
         <v>1.0</v>
@@ -3172,7 +3169,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" t="n">
         <v>1.0</v>
@@ -3204,7 +3201,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n">
         <v>1.0</v>

--- a/gdrive/adatbazis_2HF.xlsx
+++ b/gdrive/adatbazis_2HF.xlsx
@@ -8,9 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId6" sheetId="7"/>
-    <sheet name="Sheet2" r:id="rId7" sheetId="8"/>
-    <sheet name="Sheet3" r:id="rId8" sheetId="9"/>
+    <sheet name="Sheet1" r:id="rId6" sheetId="10"/>
+    <sheet name="Sheet2" r:id="rId7" sheetId="11"/>
+    <sheet name="Sheet3" r:id="rId8" sheetId="12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="37">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>05819bfb62590144089c73294d3205e5</t>
+  </si>
+  <si>
+    <t>73bb1482b970b10269a3262d1a63b0bc</t>
   </si>
 </sst>
 </file>
@@ -224,7 +227,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1229,7 +1232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1271,7 +1274,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" t="n">
         <v>2.0</v>
@@ -1303,7 +1306,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
@@ -1335,7 +1338,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="n">
         <v>1.0</v>
@@ -1367,7 +1370,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
@@ -1399,7 +1402,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="n">
         <v>2.0</v>
@@ -1431,7 +1434,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="n">
         <v>2.0</v>
@@ -1463,7 +1466,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="n">
         <v>1.0</v>
@@ -1495,7 +1498,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="n">
         <v>1.0</v>
@@ -1527,7 +1530,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" t="n">
         <v>1.0</v>
@@ -1559,7 +1562,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="n">
         <v>1.0</v>
@@ -1591,7 +1594,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" t="n">
         <v>1.0</v>
@@ -1623,7 +1626,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" t="n">
         <v>1.0</v>
@@ -1655,7 +1658,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" t="n">
         <v>2.0</v>
@@ -1687,7 +1690,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" t="n">
         <v>1.0</v>
@@ -1719,7 +1722,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" t="n">
         <v>1.0</v>
@@ -1751,7 +1754,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" t="n">
         <v>1.0</v>
@@ -1783,7 +1786,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -1847,7 +1850,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="n">
         <v>1.0</v>
@@ -1879,7 +1882,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" t="n">
         <v>1.0</v>
@@ -1911,7 +1914,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="n">
         <v>1.0</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" t="n">
         <v>1.0</v>
@@ -1975,7 +1978,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" t="n">
         <v>1.0</v>
@@ -2007,7 +2010,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" t="n">
         <v>1.0</v>
@@ -2039,7 +2042,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" t="n">
         <v>1.0</v>
@@ -2071,7 +2074,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" t="n">
         <v>1.0</v>
@@ -2103,7 +2106,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" t="n">
         <v>1.0</v>
@@ -2135,7 +2138,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" t="n">
         <v>1.0</v>
@@ -2167,7 +2170,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" t="n">
         <v>1.0</v>
@@ -2199,7 +2202,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" t="n">
         <v>1.0</v>
@@ -2234,7 +2237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2276,7 +2279,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" t="n">
         <v>2.0</v>
@@ -2308,7 +2311,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
@@ -2340,7 +2343,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="n">
         <v>1.0</v>
@@ -2372,7 +2375,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
@@ -2404,7 +2407,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="n">
         <v>2.0</v>
@@ -2436,7 +2439,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="n">
         <v>2.0</v>
@@ -2468,7 +2471,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="n">
         <v>1.0</v>
@@ -2500,7 +2503,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="n">
         <v>1.0</v>
@@ -2532,7 +2535,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" t="n">
         <v>1.0</v>
@@ -2564,7 +2567,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="n">
         <v>1.0</v>
@@ -2596,7 +2599,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" t="n">
         <v>1.0</v>
@@ -2628,7 +2631,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" t="n">
         <v>1.0</v>
@@ -2660,7 +2663,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" t="n">
         <v>2.0</v>
@@ -2692,7 +2695,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" t="n">
         <v>1.0</v>
@@ -2724,7 +2727,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" t="n">
         <v>1.0</v>
@@ -2756,7 +2759,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" t="n">
         <v>1.0</v>
@@ -2788,7 +2791,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -2820,7 +2823,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -2852,7 +2855,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="n">
         <v>1.0</v>
@@ -2884,7 +2887,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" t="n">
         <v>1.0</v>
@@ -2916,7 +2919,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="n">
         <v>1.0</v>
@@ -2948,7 +2951,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" t="n">
         <v>1.0</v>
@@ -2980,7 +2983,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" t="n">
         <v>1.0</v>
@@ -3012,7 +3015,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" t="n">
         <v>1.0</v>
@@ -3044,7 +3047,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" t="n">
         <v>1.0</v>
@@ -3076,7 +3079,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" t="n">
         <v>1.0</v>
@@ -3108,7 +3111,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" t="n">
         <v>1.0</v>
@@ -3140,7 +3143,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" t="n">
         <v>1.0</v>
@@ -3172,7 +3175,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" t="n">
         <v>1.0</v>
@@ -3204,7 +3207,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" t="n">
         <v>1.0</v>

--- a/gdrive/adatbazis_2HF.xlsx
+++ b/gdrive/adatbazis_2HF.xlsx
@@ -8,9 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId6" sheetId="10"/>
-    <sheet name="Sheet2" r:id="rId7" sheetId="11"/>
-    <sheet name="Sheet3" r:id="rId8" sheetId="12"/>
+    <sheet name="Sheet1" r:id="rId6" sheetId="4"/>
+    <sheet name="Sheet2" r:id="rId7" sheetId="5"/>
+    <sheet name="Sheet3" r:id="rId8" sheetId="6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="35">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -127,12 +127,6 @@
   </si>
   <si>
     <t>41259f2c2b3749c2e186a8615329a10c</t>
-  </si>
-  <si>
-    <t>05819bfb62590144089c73294d3205e5</t>
-  </si>
-  <si>
-    <t>73bb1482b970b10269a3262d1a63b0bc</t>
   </si>
 </sst>
 </file>
@@ -227,7 +221,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1232,7 +1226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1274,7 +1268,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" t="n">
         <v>2.0</v>
@@ -1306,7 +1300,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
@@ -1338,7 +1332,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" t="n">
         <v>1.0</v>
@@ -1370,7 +1364,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
@@ -1402,7 +1396,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" t="n">
         <v>2.0</v>
@@ -1434,7 +1428,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" t="n">
         <v>2.0</v>
@@ -1466,7 +1460,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" t="n">
         <v>1.0</v>
@@ -1498,7 +1492,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" t="n">
         <v>1.0</v>
@@ -1530,7 +1524,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" t="n">
         <v>1.0</v>
@@ -1562,7 +1556,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" t="n">
         <v>1.0</v>
@@ -1594,7 +1588,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" t="n">
         <v>1.0</v>
@@ -1626,7 +1620,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" t="n">
         <v>1.0</v>
@@ -1658,7 +1652,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" t="n">
         <v>2.0</v>
@@ -1690,7 +1684,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15" t="n">
         <v>1.0</v>
@@ -1722,7 +1716,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" t="n">
         <v>1.0</v>
@@ -1754,7 +1748,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B17" t="n">
         <v>1.0</v>
@@ -1786,7 +1780,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -1818,7 +1812,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -1850,7 +1844,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" t="n">
         <v>1.0</v>
@@ -1882,7 +1876,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" t="n">
         <v>1.0</v>
@@ -1914,7 +1908,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22" t="n">
         <v>1.0</v>
@@ -1946,7 +1940,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B23" t="n">
         <v>1.0</v>
@@ -1978,7 +1972,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B24" t="n">
         <v>1.0</v>
@@ -2010,7 +2004,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B25" t="n">
         <v>1.0</v>
@@ -2042,7 +2036,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B26" t="n">
         <v>1.0</v>
@@ -2074,7 +2068,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B27" t="n">
         <v>1.0</v>
@@ -2106,7 +2100,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B28" t="n">
         <v>1.0</v>
@@ -2138,7 +2132,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B29" t="n">
         <v>1.0</v>
@@ -2170,7 +2164,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B30" t="n">
         <v>1.0</v>
@@ -2202,7 +2196,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n">
         <v>1.0</v>
@@ -2237,7 +2231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2279,7 +2273,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" t="n">
         <v>2.0</v>
@@ -2311,7 +2305,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
@@ -2343,7 +2337,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" t="n">
         <v>1.0</v>
@@ -2375,7 +2369,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
@@ -2407,7 +2401,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" t="n">
         <v>2.0</v>
@@ -2439,7 +2433,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" t="n">
         <v>2.0</v>
@@ -2471,7 +2465,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" t="n">
         <v>1.0</v>
@@ -2503,7 +2497,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" t="n">
         <v>1.0</v>
@@ -2535,7 +2529,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" t="n">
         <v>1.0</v>
@@ -2567,7 +2561,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" t="n">
         <v>1.0</v>
@@ -2599,7 +2593,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" t="n">
         <v>1.0</v>
@@ -2631,7 +2625,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" t="n">
         <v>1.0</v>
@@ -2663,7 +2657,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" t="n">
         <v>2.0</v>
@@ -2695,7 +2689,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15" t="n">
         <v>1.0</v>
@@ -2727,7 +2721,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" t="n">
         <v>1.0</v>
@@ -2759,7 +2753,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B17" t="n">
         <v>1.0</v>
@@ -2791,7 +2785,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -2823,7 +2817,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -2855,7 +2849,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" t="n">
         <v>1.0</v>
@@ -2887,7 +2881,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" t="n">
         <v>1.0</v>
@@ -2919,7 +2913,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22" t="n">
         <v>1.0</v>
@@ -2951,7 +2945,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B23" t="n">
         <v>1.0</v>
@@ -2983,7 +2977,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B24" t="n">
         <v>1.0</v>
@@ -3015,7 +3009,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B25" t="n">
         <v>1.0</v>
@@ -3047,7 +3041,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B26" t="n">
         <v>1.0</v>
@@ -3079,7 +3073,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B27" t="n">
         <v>1.0</v>
@@ -3111,7 +3105,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B28" t="n">
         <v>1.0</v>
@@ -3143,7 +3137,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B29" t="n">
         <v>1.0</v>
@@ -3175,7 +3169,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B30" t="n">
         <v>1.0</v>
@@ -3207,7 +3201,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n">
         <v>1.0</v>

--- a/gdrive/adatbazis_2HF.xlsx
+++ b/gdrive/adatbazis_2HF.xlsx
@@ -8,9 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId6" sheetId="4"/>
-    <sheet name="Sheet2" r:id="rId7" sheetId="5"/>
-    <sheet name="Sheet3" r:id="rId8" sheetId="6"/>
+    <sheet name="Sheet1" r:id="rId6" sheetId="7"/>
+    <sheet name="Sheet2" r:id="rId7" sheetId="8"/>
+    <sheet name="Sheet3" r:id="rId8" sheetId="9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="36">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>41259f2c2b3749c2e186a8615329a10c</t>
+  </si>
+  <si>
+    <t>05819bfb62590144089c73294d3205e5</t>
   </si>
 </sst>
 </file>
@@ -221,7 +224,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -263,7 +266,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="n">
         <v>2.0</v>
@@ -295,7 +298,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
@@ -327,7 +330,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="n">
         <v>1.0</v>
@@ -359,7 +362,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
@@ -391,7 +394,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="n">
         <v>2.0</v>
@@ -423,7 +426,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="n">
         <v>2.0</v>
@@ -455,7 +458,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="n">
         <v>1.0</v>
@@ -487,7 +490,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="n">
         <v>1.0</v>
@@ -519,7 +522,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="n">
         <v>1.0</v>
@@ -551,7 +554,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="n">
         <v>1.0</v>
@@ -583,7 +586,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" t="n">
         <v>1.0</v>
@@ -615,7 +618,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" t="n">
         <v>1.0</v>
@@ -647,7 +650,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="n">
         <v>2.0</v>
@@ -679,7 +682,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" t="n">
         <v>1.0</v>
@@ -711,7 +714,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" t="n">
         <v>1.0</v>
@@ -743,7 +746,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" t="n">
         <v>1.0</v>
@@ -775,7 +778,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -807,7 +810,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -839,7 +842,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="n">
         <v>1.0</v>
@@ -871,7 +874,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="n">
         <v>1.0</v>
@@ -903,7 +906,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="n">
         <v>1.0</v>
@@ -935,7 +938,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="n">
         <v>1.0</v>
@@ -967,7 +970,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" t="n">
         <v>1.0</v>
@@ -999,7 +1002,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" t="n">
         <v>1.0</v>
@@ -1031,7 +1034,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" t="n">
         <v>1.0</v>
@@ -1063,7 +1066,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" t="n">
         <v>1.0</v>
@@ -1095,7 +1098,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" t="n">
         <v>1.0</v>
@@ -1127,7 +1130,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" t="n">
         <v>1.0</v>
@@ -1159,7 +1162,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" t="n">
         <v>1.0</v>
@@ -1191,7 +1194,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" t="n">
         <v>1.0</v>
@@ -1226,7 +1229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1268,7 +1271,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="n">
         <v>2.0</v>
@@ -1300,7 +1303,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
@@ -1332,7 +1335,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="n">
         <v>1.0</v>
@@ -1364,7 +1367,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
@@ -1396,7 +1399,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="n">
         <v>2.0</v>
@@ -1428,7 +1431,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="n">
         <v>2.0</v>
@@ -1460,7 +1463,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="n">
         <v>1.0</v>
@@ -1492,7 +1495,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="n">
         <v>1.0</v>
@@ -1524,7 +1527,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="n">
         <v>1.0</v>
@@ -1556,7 +1559,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="n">
         <v>1.0</v>
@@ -1588,7 +1591,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" t="n">
         <v>1.0</v>
@@ -1620,7 +1623,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" t="n">
         <v>1.0</v>
@@ -1652,7 +1655,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="n">
         <v>2.0</v>
@@ -1684,7 +1687,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" t="n">
         <v>1.0</v>
@@ -1716,7 +1719,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" t="n">
         <v>1.0</v>
@@ -1748,7 +1751,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" t="n">
         <v>1.0</v>
@@ -1780,7 +1783,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -1812,7 +1815,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -1844,7 +1847,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="n">
         <v>1.0</v>
@@ -1876,7 +1879,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="n">
         <v>1.0</v>
@@ -1908,7 +1911,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="n">
         <v>1.0</v>
@@ -1940,7 +1943,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="n">
         <v>1.0</v>
@@ -1972,7 +1975,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" t="n">
         <v>1.0</v>
@@ -2004,7 +2007,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" t="n">
         <v>1.0</v>
@@ -2036,7 +2039,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" t="n">
         <v>1.0</v>
@@ -2068,7 +2071,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" t="n">
         <v>1.0</v>
@@ -2100,7 +2103,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" t="n">
         <v>1.0</v>
@@ -2132,7 +2135,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" t="n">
         <v>1.0</v>
@@ -2164,7 +2167,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" t="n">
         <v>1.0</v>
@@ -2196,7 +2199,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" t="n">
         <v>1.0</v>
@@ -2231,7 +2234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2273,7 +2276,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="n">
         <v>2.0</v>
@@ -2305,7 +2308,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
@@ -2337,7 +2340,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="n">
         <v>1.0</v>
@@ -2369,7 +2372,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
@@ -2401,7 +2404,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="n">
         <v>2.0</v>
@@ -2433,7 +2436,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="n">
         <v>2.0</v>
@@ -2465,7 +2468,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="n">
         <v>1.0</v>
@@ -2497,7 +2500,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="n">
         <v>1.0</v>
@@ -2529,7 +2532,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="n">
         <v>1.0</v>
@@ -2561,7 +2564,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="n">
         <v>1.0</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" t="n">
         <v>1.0</v>
@@ -2625,7 +2628,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" t="n">
         <v>1.0</v>
@@ -2657,7 +2660,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="n">
         <v>2.0</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" t="n">
         <v>1.0</v>
@@ -2721,7 +2724,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" t="n">
         <v>1.0</v>
@@ -2753,7 +2756,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" t="n">
         <v>1.0</v>
@@ -2785,7 +2788,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -2817,7 +2820,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -2849,7 +2852,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="n">
         <v>1.0</v>
@@ -2881,7 +2884,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="n">
         <v>1.0</v>
@@ -2913,7 +2916,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="n">
         <v>1.0</v>
@@ -2945,7 +2948,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="n">
         <v>1.0</v>
@@ -2977,7 +2980,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" t="n">
         <v>1.0</v>
@@ -3009,7 +3012,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" t="n">
         <v>1.0</v>
@@ -3041,7 +3044,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" t="n">
         <v>1.0</v>
@@ -3073,7 +3076,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" t="n">
         <v>1.0</v>
@@ -3105,7 +3108,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" t="n">
         <v>1.0</v>
@@ -3137,7 +3140,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" t="n">
         <v>1.0</v>
@@ -3169,7 +3172,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" t="n">
         <v>1.0</v>
@@ -3201,7 +3204,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" t="n">
         <v>1.0</v>

--- a/gdrive/adatbazis_2HF.xlsx
+++ b/gdrive/adatbazis_2HF.xlsx
@@ -8,9 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId6" sheetId="4"/>
-    <sheet name="Sheet2" r:id="rId7" sheetId="5"/>
-    <sheet name="Sheet3" r:id="rId8" sheetId="6"/>
+    <sheet name="Sheet1" r:id="rId6" sheetId="7"/>
+    <sheet name="Sheet2" r:id="rId7" sheetId="8"/>
+    <sheet name="Sheet3" r:id="rId8" sheetId="9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="36">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>41259f2c2b3749c2e186a8615329a10c</t>
+  </si>
+  <si>
+    <t>05819bfb62590144089c73294d3205e5</t>
   </si>
 </sst>
 </file>
@@ -221,7 +224,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -263,7 +266,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="n">
         <v>2.0</v>
@@ -295,7 +298,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
@@ -327,7 +330,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="n">
         <v>1.0</v>
@@ -359,7 +362,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
@@ -391,7 +394,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="n">
         <v>2.0</v>
@@ -423,7 +426,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="n">
         <v>2.0</v>
@@ -455,7 +458,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="n">
         <v>1.0</v>
@@ -487,7 +490,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="n">
         <v>1.0</v>
@@ -519,7 +522,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="n">
         <v>1.0</v>
@@ -551,7 +554,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="n">
         <v>1.0</v>
@@ -583,7 +586,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" t="n">
         <v>1.0</v>
@@ -615,7 +618,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" t="n">
         <v>1.0</v>
@@ -647,7 +650,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="n">
         <v>2.0</v>
@@ -679,7 +682,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" t="n">
         <v>1.0</v>
@@ -711,7 +714,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" t="n">
         <v>1.0</v>
@@ -743,7 +746,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" t="n">
         <v>1.0</v>
@@ -775,7 +778,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -807,7 +810,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -839,7 +842,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="n">
         <v>1.0</v>
@@ -871,7 +874,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="n">
         <v>1.0</v>
@@ -903,7 +906,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="n">
         <v>1.0</v>
@@ -935,7 +938,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="n">
         <v>1.0</v>
@@ -967,7 +970,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" t="n">
         <v>1.0</v>
@@ -999,7 +1002,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" t="n">
         <v>1.0</v>
@@ -1031,7 +1034,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" t="n">
         <v>1.0</v>
@@ -1063,7 +1066,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" t="n">
         <v>1.0</v>
@@ -1095,7 +1098,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" t="n">
         <v>1.0</v>
@@ -1127,7 +1130,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" t="n">
         <v>1.0</v>
@@ -1159,7 +1162,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" t="n">
         <v>1.0</v>
@@ -1191,7 +1194,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" t="n">
         <v>1.0</v>
@@ -1226,7 +1229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2231,7 +2234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2273,7 +2276,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="n">
         <v>2.0</v>
@@ -2305,7 +2308,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
@@ -2337,7 +2340,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="n">
         <v>1.0</v>
@@ -2369,7 +2372,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
@@ -2401,7 +2404,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="n">
         <v>2.0</v>
@@ -2433,7 +2436,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="n">
         <v>2.0</v>
@@ -2465,7 +2468,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="n">
         <v>1.0</v>
@@ -2497,7 +2500,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="n">
         <v>1.0</v>
@@ -2529,7 +2532,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="n">
         <v>1.0</v>
@@ -2561,7 +2564,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="n">
         <v>1.0</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" t="n">
         <v>1.0</v>
@@ -2625,7 +2628,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" t="n">
         <v>1.0</v>
@@ -2657,7 +2660,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="n">
         <v>2.0</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" t="n">
         <v>1.0</v>
@@ -2721,7 +2724,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" t="n">
         <v>1.0</v>
@@ -2753,7 +2756,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" t="n">
         <v>1.0</v>
@@ -2785,7 +2788,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -2817,7 +2820,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -2849,7 +2852,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="n">
         <v>1.0</v>
@@ -2881,7 +2884,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="n">
         <v>1.0</v>
@@ -2913,7 +2916,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="n">
         <v>1.0</v>
@@ -2945,7 +2948,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="n">
         <v>1.0</v>
@@ -2977,7 +2980,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" t="n">
         <v>1.0</v>
@@ -3009,7 +3012,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" t="n">
         <v>1.0</v>
@@ -3041,7 +3044,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" t="n">
         <v>1.0</v>
@@ -3073,7 +3076,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" t="n">
         <v>1.0</v>
@@ -3105,7 +3108,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" t="n">
         <v>1.0</v>
@@ -3137,7 +3140,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" t="n">
         <v>1.0</v>
@@ -3169,7 +3172,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" t="n">
         <v>1.0</v>
@@ -3201,7 +3204,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" t="n">
         <v>1.0</v>

--- a/gdrive/adatbazis_2HF.xlsx
+++ b/gdrive/adatbazis_2HF.xlsx
@@ -8,9 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId6" sheetId="7"/>
-    <sheet name="Sheet2" r:id="rId7" sheetId="8"/>
-    <sheet name="Sheet3" r:id="rId8" sheetId="9"/>
+    <sheet name="Sheet1" r:id="rId6" sheetId="4"/>
+    <sheet name="Sheet2" r:id="rId7" sheetId="5"/>
+    <sheet name="Sheet3" r:id="rId8" sheetId="6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="35">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>41259f2c2b3749c2e186a8615329a10c</t>
-  </si>
-  <si>
-    <t>05819bfb62590144089c73294d3205e5</t>
   </si>
 </sst>
 </file>
@@ -224,7 +221,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -266,7 +263,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="n">
         <v>2.0</v>
@@ -298,7 +295,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
@@ -330,7 +327,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="n">
         <v>1.0</v>
@@ -362,7 +359,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
@@ -394,7 +391,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="n">
         <v>2.0</v>
@@ -426,7 +423,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" t="n">
         <v>2.0</v>
@@ -458,7 +455,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" t="n">
         <v>1.0</v>
@@ -490,7 +487,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" t="n">
         <v>1.0</v>
@@ -522,7 +519,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" t="n">
         <v>1.0</v>
@@ -554,7 +551,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" t="n">
         <v>1.0</v>
@@ -586,7 +583,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="n">
         <v>1.0</v>
@@ -618,7 +615,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" t="n">
         <v>1.0</v>
@@ -650,7 +647,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" t="n">
         <v>2.0</v>
@@ -682,7 +679,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" t="n">
         <v>1.0</v>
@@ -714,7 +711,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" t="n">
         <v>1.0</v>
@@ -746,7 +743,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" t="n">
         <v>1.0</v>
@@ -778,7 +775,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -810,7 +807,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -842,7 +839,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" t="n">
         <v>1.0</v>
@@ -874,7 +871,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" t="n">
         <v>1.0</v>
@@ -906,7 +903,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" t="n">
         <v>1.0</v>
@@ -938,7 +935,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" t="n">
         <v>1.0</v>
@@ -970,7 +967,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" t="n">
         <v>1.0</v>
@@ -1002,7 +999,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" t="n">
         <v>1.0</v>
@@ -1034,7 +1031,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" t="n">
         <v>1.0</v>
@@ -1066,7 +1063,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" t="n">
         <v>1.0</v>
@@ -1098,7 +1095,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="n">
         <v>1.0</v>
@@ -1130,7 +1127,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" t="n">
         <v>1.0</v>
@@ -1162,7 +1159,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" t="n">
         <v>1.0</v>
@@ -1194,7 +1191,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n">
         <v>1.0</v>
@@ -1229,7 +1226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2234,7 +2231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2276,7 +2273,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="n">
         <v>2.0</v>
@@ -2308,7 +2305,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
@@ -2340,7 +2337,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="n">
         <v>1.0</v>
@@ -2372,7 +2369,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
@@ -2404,7 +2401,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="n">
         <v>2.0</v>
@@ -2436,7 +2433,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" t="n">
         <v>2.0</v>
@@ -2468,7 +2465,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" t="n">
         <v>1.0</v>
@@ -2500,7 +2497,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" t="n">
         <v>1.0</v>
@@ -2532,7 +2529,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" t="n">
         <v>1.0</v>
@@ -2564,7 +2561,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" t="n">
         <v>1.0</v>
@@ -2596,7 +2593,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="n">
         <v>1.0</v>
@@ -2628,7 +2625,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" t="n">
         <v>1.0</v>
@@ -2660,7 +2657,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" t="n">
         <v>2.0</v>
@@ -2692,7 +2689,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" t="n">
         <v>1.0</v>
@@ -2724,7 +2721,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" t="n">
         <v>1.0</v>
@@ -2756,7 +2753,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" t="n">
         <v>1.0</v>
@@ -2788,7 +2785,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -2820,7 +2817,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -2852,7 +2849,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" t="n">
         <v>1.0</v>
@@ -2884,7 +2881,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" t="n">
         <v>1.0</v>
@@ -2916,7 +2913,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" t="n">
         <v>1.0</v>
@@ -2948,7 +2945,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" t="n">
         <v>1.0</v>
@@ -2980,7 +2977,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" t="n">
         <v>1.0</v>
@@ -3012,7 +3009,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" t="n">
         <v>1.0</v>
@@ -3044,7 +3041,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" t="n">
         <v>1.0</v>
@@ -3076,7 +3073,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" t="n">
         <v>1.0</v>
@@ -3108,7 +3105,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="n">
         <v>1.0</v>
@@ -3140,7 +3137,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" t="n">
         <v>1.0</v>
@@ -3172,7 +3169,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" t="n">
         <v>1.0</v>
@@ -3204,7 +3201,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n">
         <v>1.0</v>

--- a/gdrive/adatbazis_2HF.xlsx
+++ b/gdrive/adatbazis_2HF.xlsx
@@ -8,9 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId6" sheetId="7"/>
-    <sheet name="Sheet2" r:id="rId7" sheetId="8"/>
-    <sheet name="Sheet3" r:id="rId8" sheetId="9"/>
+    <sheet name="Sheet1" r:id="rId6" sheetId="10"/>
+    <sheet name="Sheet2" r:id="rId7" sheetId="11"/>
+    <sheet name="Sheet3" r:id="rId8" sheetId="12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="37">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>05819bfb62590144089c73294d3205e5</t>
+  </si>
+  <si>
+    <t>73bb1482b970b10269a3262d1a63b0bc</t>
   </si>
 </sst>
 </file>
@@ -224,7 +227,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -266,7 +269,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="n">
         <v>2.0</v>
@@ -298,7 +301,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
@@ -330,7 +333,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="n">
         <v>1.0</v>
@@ -362,7 +365,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
@@ -394,7 +397,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="n">
         <v>2.0</v>
@@ -426,7 +429,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="n">
         <v>2.0</v>
@@ -458,7 +461,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="n">
         <v>1.0</v>
@@ -490,7 +493,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="n">
         <v>1.0</v>
@@ -522,7 +525,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="n">
         <v>1.0</v>
@@ -554,7 +557,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="n">
         <v>1.0</v>
@@ -586,7 +589,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" t="n">
         <v>1.0</v>
@@ -618,7 +621,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" t="n">
         <v>1.0</v>
@@ -650,7 +653,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="n">
         <v>2.0</v>
@@ -682,7 +685,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" t="n">
         <v>1.0</v>
@@ -714,7 +717,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" t="n">
         <v>1.0</v>
@@ -746,7 +749,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" t="n">
         <v>1.0</v>
@@ -778,7 +781,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -810,7 +813,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -842,7 +845,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="n">
         <v>1.0</v>
@@ -874,7 +877,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="n">
         <v>1.0</v>
@@ -906,7 +909,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="n">
         <v>1.0</v>
@@ -938,7 +941,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="n">
         <v>1.0</v>
@@ -970,7 +973,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" t="n">
         <v>1.0</v>
@@ -1002,7 +1005,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" t="n">
         <v>1.0</v>
@@ -1034,7 +1037,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" t="n">
         <v>1.0</v>
@@ -1066,7 +1069,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" t="n">
         <v>1.0</v>
@@ -1098,7 +1101,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" t="n">
         <v>1.0</v>
@@ -1130,7 +1133,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" t="n">
         <v>1.0</v>
@@ -1162,7 +1165,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" t="n">
         <v>1.0</v>
@@ -1194,7 +1197,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" t="n">
         <v>1.0</v>
@@ -1229,7 +1232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1271,7 +1274,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" t="n">
         <v>2.0</v>
@@ -1303,7 +1306,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
@@ -1335,7 +1338,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="n">
         <v>1.0</v>
@@ -1367,7 +1370,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
@@ -1399,7 +1402,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="n">
         <v>2.0</v>
@@ -1431,7 +1434,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="n">
         <v>2.0</v>
@@ -1463,7 +1466,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="n">
         <v>1.0</v>
@@ -1495,7 +1498,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="n">
         <v>1.0</v>
@@ -1527,7 +1530,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" t="n">
         <v>1.0</v>
@@ -1559,7 +1562,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="n">
         <v>1.0</v>
@@ -1591,7 +1594,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" t="n">
         <v>1.0</v>
@@ -1623,7 +1626,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" t="n">
         <v>1.0</v>
@@ -1655,7 +1658,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" t="n">
         <v>2.0</v>
@@ -1687,7 +1690,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" t="n">
         <v>1.0</v>
@@ -1719,7 +1722,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" t="n">
         <v>1.0</v>
@@ -1751,7 +1754,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" t="n">
         <v>1.0</v>
@@ -1783,7 +1786,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -1847,7 +1850,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="n">
         <v>1.0</v>
@@ -1879,7 +1882,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" t="n">
         <v>1.0</v>
@@ -1911,7 +1914,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="n">
         <v>1.0</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" t="n">
         <v>1.0</v>
@@ -1975,7 +1978,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" t="n">
         <v>1.0</v>
@@ -2007,7 +2010,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" t="n">
         <v>1.0</v>
@@ -2039,7 +2042,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" t="n">
         <v>1.0</v>
@@ -2071,7 +2074,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" t="n">
         <v>1.0</v>
@@ -2103,7 +2106,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" t="n">
         <v>1.0</v>
@@ -2135,7 +2138,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" t="n">
         <v>1.0</v>
@@ -2167,7 +2170,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" t="n">
         <v>1.0</v>
@@ -2199,7 +2202,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" t="n">
         <v>1.0</v>
@@ -2234,7 +2237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2276,7 +2279,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" t="n">
         <v>2.0</v>
@@ -2308,7 +2311,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
@@ -2340,7 +2343,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="n">
         <v>1.0</v>
@@ -2372,7 +2375,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
@@ -2404,7 +2407,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="n">
         <v>2.0</v>
@@ -2436,7 +2439,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="n">
         <v>2.0</v>
@@ -2468,7 +2471,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="n">
         <v>1.0</v>
@@ -2500,7 +2503,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="n">
         <v>1.0</v>
@@ -2532,7 +2535,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" t="n">
         <v>1.0</v>
@@ -2564,7 +2567,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="n">
         <v>1.0</v>
@@ -2596,7 +2599,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" t="n">
         <v>1.0</v>
@@ -2628,7 +2631,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" t="n">
         <v>1.0</v>
@@ -2660,7 +2663,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" t="n">
         <v>2.0</v>
@@ -2692,7 +2695,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" t="n">
         <v>1.0</v>
@@ -2724,7 +2727,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" t="n">
         <v>1.0</v>
@@ -2756,7 +2759,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" t="n">
         <v>1.0</v>
@@ -2788,7 +2791,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -2820,7 +2823,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -2852,7 +2855,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="n">
         <v>1.0</v>
@@ -2884,7 +2887,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" t="n">
         <v>1.0</v>
@@ -2916,7 +2919,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="n">
         <v>1.0</v>
@@ -2948,7 +2951,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" t="n">
         <v>1.0</v>
@@ -2980,7 +2983,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" t="n">
         <v>1.0</v>
@@ -3012,7 +3015,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" t="n">
         <v>1.0</v>
@@ -3044,7 +3047,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" t="n">
         <v>1.0</v>
@@ -3076,7 +3079,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" t="n">
         <v>1.0</v>
@@ -3108,7 +3111,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" t="n">
         <v>1.0</v>
@@ -3140,7 +3143,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" t="n">
         <v>1.0</v>
@@ -3172,7 +3175,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" t="n">
         <v>1.0</v>
@@ -3204,7 +3207,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" t="n">
         <v>1.0</v>

--- a/gdrive/adatbazis_2HF.xlsx
+++ b/gdrive/adatbazis_2HF.xlsx
@@ -8,9 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId6" sheetId="10"/>
-    <sheet name="Sheet2" r:id="rId7" sheetId="11"/>
-    <sheet name="Sheet3" r:id="rId8" sheetId="12"/>
+    <sheet name="Sheet1" r:id="rId6" sheetId="4"/>
+    <sheet name="Sheet2" r:id="rId7" sheetId="5"/>
+    <sheet name="Sheet3" r:id="rId8" sheetId="6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="35">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -127,12 +127,6 @@
   </si>
   <si>
     <t>41259f2c2b3749c2e186a8615329a10c</t>
-  </si>
-  <si>
-    <t>05819bfb62590144089c73294d3205e5</t>
-  </si>
-  <si>
-    <t>73bb1482b970b10269a3262d1a63b0bc</t>
   </si>
 </sst>
 </file>
@@ -227,7 +221,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -269,7 +263,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="n">
         <v>2.0</v>
@@ -301,7 +295,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
@@ -333,7 +327,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="n">
         <v>1.0</v>
@@ -365,7 +359,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
@@ -397,7 +391,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="n">
         <v>2.0</v>
@@ -429,7 +423,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" t="n">
         <v>2.0</v>
@@ -461,7 +455,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" t="n">
         <v>1.0</v>
@@ -493,7 +487,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" t="n">
         <v>1.0</v>
@@ -525,7 +519,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" t="n">
         <v>1.0</v>
@@ -557,7 +551,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" t="n">
         <v>1.0</v>
@@ -589,7 +583,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="n">
         <v>1.0</v>
@@ -621,7 +615,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" t="n">
         <v>1.0</v>
@@ -653,7 +647,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" t="n">
         <v>2.0</v>
@@ -685,7 +679,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" t="n">
         <v>1.0</v>
@@ -717,7 +711,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" t="n">
         <v>1.0</v>
@@ -749,7 +743,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" t="n">
         <v>1.0</v>
@@ -781,7 +775,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -813,7 +807,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -845,7 +839,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" t="n">
         <v>1.0</v>
@@ -877,7 +871,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" t="n">
         <v>1.0</v>
@@ -909,7 +903,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" t="n">
         <v>1.0</v>
@@ -941,7 +935,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" t="n">
         <v>1.0</v>
@@ -973,7 +967,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" t="n">
         <v>1.0</v>
@@ -1005,7 +999,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" t="n">
         <v>1.0</v>
@@ -1037,7 +1031,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" t="n">
         <v>1.0</v>
@@ -1069,7 +1063,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" t="n">
         <v>1.0</v>
@@ -1101,7 +1095,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="n">
         <v>1.0</v>
@@ -1133,7 +1127,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" t="n">
         <v>1.0</v>
@@ -1165,7 +1159,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" t="n">
         <v>1.0</v>
@@ -1197,7 +1191,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n">
         <v>1.0</v>
@@ -1232,7 +1226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1274,7 +1268,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" t="n">
         <v>2.0</v>
@@ -1306,7 +1300,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
@@ -1338,7 +1332,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" t="n">
         <v>1.0</v>
@@ -1370,7 +1364,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
@@ -1402,7 +1396,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" t="n">
         <v>2.0</v>
@@ -1434,7 +1428,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" t="n">
         <v>2.0</v>
@@ -1466,7 +1460,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" t="n">
         <v>1.0</v>
@@ -1498,7 +1492,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" t="n">
         <v>1.0</v>
@@ -1530,7 +1524,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" t="n">
         <v>1.0</v>
@@ -1562,7 +1556,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" t="n">
         <v>1.0</v>
@@ -1594,7 +1588,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" t="n">
         <v>1.0</v>
@@ -1626,7 +1620,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" t="n">
         <v>1.0</v>
@@ -1658,7 +1652,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" t="n">
         <v>2.0</v>
@@ -1690,7 +1684,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15" t="n">
         <v>1.0</v>
@@ -1722,7 +1716,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" t="n">
         <v>1.0</v>
@@ -1754,7 +1748,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B17" t="n">
         <v>1.0</v>
@@ -1786,7 +1780,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -1818,7 +1812,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -1850,7 +1844,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" t="n">
         <v>1.0</v>
@@ -1882,7 +1876,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" t="n">
         <v>1.0</v>
@@ -1914,7 +1908,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22" t="n">
         <v>1.0</v>
@@ -1946,7 +1940,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B23" t="n">
         <v>1.0</v>
@@ -1978,7 +1972,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B24" t="n">
         <v>1.0</v>
@@ -2010,7 +2004,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B25" t="n">
         <v>1.0</v>
@@ -2042,7 +2036,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B26" t="n">
         <v>1.0</v>
@@ -2074,7 +2068,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B27" t="n">
         <v>1.0</v>
@@ -2106,7 +2100,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B28" t="n">
         <v>1.0</v>
@@ -2138,7 +2132,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B29" t="n">
         <v>1.0</v>
@@ -2170,7 +2164,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B30" t="n">
         <v>1.0</v>
@@ -2202,7 +2196,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n">
         <v>1.0</v>
@@ -2237,7 +2231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2279,7 +2273,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" t="n">
         <v>2.0</v>
@@ -2311,7 +2305,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
@@ -2343,7 +2337,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" t="n">
         <v>1.0</v>
@@ -2375,7 +2369,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
@@ -2407,7 +2401,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" t="n">
         <v>2.0</v>
@@ -2439,7 +2433,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" t="n">
         <v>2.0</v>
@@ -2471,7 +2465,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" t="n">
         <v>1.0</v>
@@ -2503,7 +2497,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" t="n">
         <v>1.0</v>
@@ -2535,7 +2529,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" t="n">
         <v>1.0</v>
@@ -2567,7 +2561,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" t="n">
         <v>1.0</v>
@@ -2599,7 +2593,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" t="n">
         <v>1.0</v>
@@ -2631,7 +2625,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" t="n">
         <v>1.0</v>
@@ -2663,7 +2657,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" t="n">
         <v>2.0</v>
@@ -2695,7 +2689,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15" t="n">
         <v>1.0</v>
@@ -2727,7 +2721,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" t="n">
         <v>1.0</v>
@@ -2759,7 +2753,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B17" t="n">
         <v>1.0</v>
@@ -2791,7 +2785,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -2823,7 +2817,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -2855,7 +2849,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" t="n">
         <v>1.0</v>
@@ -2887,7 +2881,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" t="n">
         <v>1.0</v>
@@ -2919,7 +2913,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22" t="n">
         <v>1.0</v>
@@ -2951,7 +2945,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B23" t="n">
         <v>1.0</v>
@@ -2983,7 +2977,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B24" t="n">
         <v>1.0</v>
@@ -3015,7 +3009,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B25" t="n">
         <v>1.0</v>
@@ -3047,7 +3041,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B26" t="n">
         <v>1.0</v>
@@ -3079,7 +3073,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B27" t="n">
         <v>1.0</v>
@@ -3111,7 +3105,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B28" t="n">
         <v>1.0</v>
@@ -3143,7 +3137,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B29" t="n">
         <v>1.0</v>
@@ -3175,7 +3169,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B30" t="n">
         <v>1.0</v>
@@ -3207,7 +3201,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n">
         <v>1.0</v>
